--- a/output/junior/1_count.xlsx
+++ b/output/junior/1_count.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>ans_str</t>
-  </si>
-  <si>
-    <t>None</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
   <si>
     <t>[0, 2, 3, [0, 2, 4, 3]]</t>
@@ -92,6 +95,12 @@
   </si>
   <si>
     <t>[1, 2, 2, [3, 1, 0]]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -449,218 +458,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
+      <c r="D26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
